--- a/mutations/TreeComparisonsQuartet.xlsx
+++ b/mutations/TreeComparisonsQuartet.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="14520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scolebythidae" sheetId="1" r:id="rId1"/>
+    <sheet name="CEA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>filename</t>
   </si>
@@ -84,6 +85,24 @@
   </si>
   <si>
     <t>comp_sco_homk8.nex</t>
+  </si>
+  <si>
+    <t>Using trees from CEA_TBR_chain.nex. Chain of 100 trees generated with TBR moves, each one further removed from starting tree from Clarke &amp; Middleton 2008.</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>Start Tree</t>
+  </si>
+  <si>
+    <t>con.tre no.</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_3.nex</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -412,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,4 +1347,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.65478259999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.63249010000000006</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.64691140000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.64691140000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.63961950000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.47017690000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.63249010000000006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.6436364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mutations/TreeComparisonsQuartet.xlsx
+++ b/mutations/TreeComparisonsQuartet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxsb43\GitHub\Partitioning_Strategies\mutations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local\dxsb43\GitHub\Partitioning_Strategies\mutations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>filename</t>
   </si>
@@ -103,6 +103,60 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_2.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_1.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_100.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_90.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_80.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_70.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_60.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_50.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_40.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_30.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_20.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_10.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_9.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_8.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_7.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_6.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_5.nex</t>
+  </si>
+  <si>
+    <t>CEA_TBRch_4.nex</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,37 +1459,37 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.65478259999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.63249010000000006</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.64691140000000003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.64691140000000003</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.63961950000000001</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.47017690000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.63249010000000006</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.6436364</v>
+      <c r="D5">
+        <v>0.98403160000000001</v>
+      </c>
+      <c r="E5">
+        <v>8.3241109999999993E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.83904380000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.83904380000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.15145629999999999</v>
+      </c>
+      <c r="I5">
+        <v>8.1932770000000002E-2</v>
+      </c>
+      <c r="J5">
+        <v>8.3241109999999993E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.53363640000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1523,6 +1577,690 @@
       </c>
       <c r="K8" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.69652170000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.66632409999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.68707209999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.68707209999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.676539</v>
+      </c>
+      <c r="I9">
+        <v>0.51118929999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.66632409999999997</v>
+      </c>
+      <c r="K9">
+        <v>0.68142290000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.65478259999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.63249010000000006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.64691140000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.64691140000000003</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.63961950000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.47017690000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.63249010000000006</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.6436364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.61865610000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.59968379999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.61128119999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.61128119999999997</v>
+      </c>
+      <c r="H21">
+        <v>0.60542700000000005</v>
+      </c>
+      <c r="I21">
+        <v>0.43413069999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.59968379999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.60916999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/mutations/TreeComparisonsQuartet.xlsx
+++ b/mutations/TreeComparisonsQuartet.xlsx
@@ -1408,7 +1408,7 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,6 +1833,30 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17" s="1">
+        <v>0.57913040000000005</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.56015809999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.57099109999999997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.57099109999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.56552270000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.39423609999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.56015809999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.56964429999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18">

--- a/mutations/TreeComparisonsQuartet.xlsx
+++ b/mutations/TreeComparisonsQuartet.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="14520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Scolebythidae" sheetId="1" r:id="rId1"/>
     <sheet name="CEA" sheetId="2" r:id="rId2"/>
+    <sheet name="OZL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="68">
   <si>
     <t>filename</t>
   </si>
@@ -157,12 +158,87 @@
   </si>
   <si>
     <t>CEA_TBRch_4.nex</t>
+  </si>
+  <si>
+    <t>Using trees from OZL_TBR_chain.nex. Chain of 100 trees generated with TBR moves, each one further removed from starting tree from Clarke &amp; Middleton 2008.</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_5.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_15.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_20.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_10.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_25.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_30.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_35.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_40.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_45.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_50.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_55.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_60.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_65.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_70.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_75.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_80.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_85.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_90.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_95.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_100.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_3.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_2.nex</t>
+  </si>
+  <si>
+    <t>OZL_TBRch_1.nex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,11 +274,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1407,14 +1490,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1432,28 +1524,28 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1468,56 +1560,56 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.98403160000000001</v>
+        <v>0.89691699604743103</v>
       </c>
       <c r="E5">
-        <v>8.3241109999999993E-2</v>
+        <v>0.87794466403162097</v>
       </c>
       <c r="F5">
-        <v>0.83904380000000001</v>
+        <v>0.89492344883158703</v>
       </c>
       <c r="G5">
-        <v>0.83904380000000001</v>
+        <v>0.89492344883158703</v>
       </c>
       <c r="H5">
-        <v>0.15145629999999999</v>
+        <v>0.88635275339186004</v>
       </c>
       <c r="I5">
-        <v>8.1932770000000002E-2</v>
+        <v>0.795900816970044</v>
       </c>
       <c r="J5">
-        <v>8.3241109999999993E-2</v>
+        <v>0.87794466403162097</v>
       </c>
       <c r="K5">
-        <v>0.53363640000000001</v>
+        <v>0.88743083003952605</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1525,28 +1617,28 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1554,28 +1646,28 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1589,28 +1681,28 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.69652170000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.66632409999999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.68707209999999996</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.68707209999999996</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0.676539</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.51118929999999996</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.66632409999999997</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.68142290000000005</v>
       </c>
     </row>
@@ -1618,28 +1710,28 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1647,28 +1739,28 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1676,28 +1768,28 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1711,28 +1803,28 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.65478259999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.63249010000000006</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>0.64691140000000003</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>0.64691140000000003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>0.63961950000000001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>0.47017690000000001</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>0.63249010000000006</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>0.6436364</v>
       </c>
     </row>
@@ -1740,28 +1832,28 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1769,28 +1861,28 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1798,28 +1890,28 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1833,28 +1925,28 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.57913040000000005</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.56015809999999999</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>0.57099109999999997</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>0.57099109999999997</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>0.56552270000000004</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>0.39423609999999998</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>0.56015809999999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <v>0.56964429999999999</v>
       </c>
     </row>
@@ -1862,16 +1954,88 @@
       <c r="C18">
         <v>2</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>3</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>4</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1883,28 +2047,28 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.61865610000000004</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>0.59968379999999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.61128119999999997</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>0.61128119999999997</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>0.60542700000000005</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>0.43413069999999998</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>0.59968379999999999</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>0.60916999999999999</v>
       </c>
     </row>
@@ -1912,16 +2076,88 @@
       <c r="C22">
         <v>2</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>4</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1933,21 +2169,117 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.44612750000000001</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.61699599999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>3</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>4</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1959,23 +2291,119 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29" s="3">
+        <v>0.54055339999999996</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.52158099999999996</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.53166800000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.53166800000000003</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.52657620000000005</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.3573827</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.52158099999999996</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.53106719999999996</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>2</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>3</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1985,23 +2413,119 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.52237154150197596</v>
+      </c>
+      <c r="E33">
+        <v>0.50339920948616601</v>
+      </c>
+      <c r="F33">
+        <v>0.51313456889605202</v>
+      </c>
+      <c r="G33">
+        <v>0.51313456889605202</v>
+      </c>
+      <c r="H33">
+        <v>0.50822027134876302</v>
+      </c>
+      <c r="I33">
+        <v>0.34068050502888902</v>
+      </c>
+      <c r="J33">
+        <v>0.50339920948616601</v>
+      </c>
+      <c r="K33">
+        <v>0.51288537549407098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -2011,23 +2535,119 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.51865612648221304</v>
+      </c>
+      <c r="E37">
+        <v>0.49968379446640299</v>
+      </c>
+      <c r="F37">
+        <v>0.50934730056406097</v>
+      </c>
+      <c r="G37">
+        <v>0.50934730056406097</v>
+      </c>
+      <c r="H37">
+        <v>0.50446927374301698</v>
+      </c>
+      <c r="I37">
+        <v>0.33731789316399002</v>
+      </c>
+      <c r="J37">
+        <v>0.49968379446640299</v>
+      </c>
+      <c r="K37">
+        <v>0.50916996047430796</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -2037,23 +2657,119 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.49019762845849801</v>
+      </c>
+      <c r="E41">
+        <v>0.46316205533596799</v>
+      </c>
+      <c r="F41">
+        <v>0.47603184920377001</v>
+      </c>
+      <c r="G41">
+        <v>0.47603184920377001</v>
+      </c>
+      <c r="H41">
+        <v>0.46950877474156599</v>
+      </c>
+      <c r="I41">
+        <v>0.306769987957485</v>
+      </c>
+      <c r="J41">
+        <v>0.46316205533596799</v>
+      </c>
+      <c r="K41">
+        <v>0.476679841897233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -2063,23 +2779,119 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0.35699604743083002</v>
+      </c>
+      <c r="E45">
+        <v>0.35699604743083002</v>
+      </c>
+      <c r="F45">
+        <v>0.35699604743083002</v>
+      </c>
+      <c r="G45">
+        <v>0.35699604743083002</v>
+      </c>
+      <c r="H45">
+        <v>0.35699604743083002</v>
+      </c>
+      <c r="I45">
+        <v>0.217282525019246</v>
+      </c>
+      <c r="J45">
+        <v>0.35699604743083002</v>
+      </c>
+      <c r="K45">
+        <v>0.35699604743083002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>30</v>
       </c>
@@ -2089,23 +2901,119 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0.35422924901185798</v>
+      </c>
+      <c r="E49">
+        <v>0.33525691699604698</v>
+      </c>
+      <c r="F49">
+        <v>0.34174053182917002</v>
+      </c>
+      <c r="G49">
+        <v>0.34174053182917002</v>
+      </c>
+      <c r="H49">
+        <v>0.33846767757382301</v>
+      </c>
+      <c r="I49">
+        <v>0.20370815120803101</v>
+      </c>
+      <c r="J49">
+        <v>0.33525691699604698</v>
+      </c>
+      <c r="K49">
+        <v>0.34474308300395301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>40</v>
       </c>
@@ -2115,23 +3023,119 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0.358498023715415</v>
+      </c>
+      <c r="E53">
+        <v>0.339525691699605</v>
+      </c>
+      <c r="F53">
+        <v>0.34609186140209502</v>
+      </c>
+      <c r="G53">
+        <v>0.34609186140209502</v>
+      </c>
+      <c r="H53">
+        <v>0.34277733439744601</v>
+      </c>
+      <c r="I53">
+        <v>0.20683843005056601</v>
+      </c>
+      <c r="J53">
+        <v>0.339525691699605</v>
+      </c>
+      <c r="K53">
+        <v>0.34901185770750998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -2141,23 +3145,119 @@
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0.436205533596838</v>
+      </c>
+      <c r="E57">
+        <v>0.417233201581028</v>
+      </c>
+      <c r="F57">
+        <v>0.42530217566478601</v>
+      </c>
+      <c r="G57">
+        <v>0.42530217566478601</v>
+      </c>
+      <c r="H57">
+        <v>0.42122905027933</v>
+      </c>
+      <c r="I57">
+        <v>0.26680820948336897</v>
+      </c>
+      <c r="J57">
+        <v>0.417233201581028</v>
+      </c>
+      <c r="K57">
+        <v>0.42671936758893297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2167,23 +3267,119 @@
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0.386166007905138</v>
+      </c>
+      <c r="E61">
+        <v>0.35913043478260898</v>
+      </c>
+      <c r="F61">
+        <v>0.36910952226194299</v>
+      </c>
+      <c r="G61">
+        <v>0.36910952226194299</v>
+      </c>
+      <c r="H61">
+        <v>0.36405160669925501</v>
+      </c>
+      <c r="I61">
+        <v>0.222532451628704</v>
+      </c>
+      <c r="J61">
+        <v>0.35913043478260898</v>
+      </c>
+      <c r="K61">
+        <v>0.37264822134387399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>70</v>
       </c>
@@ -2193,23 +3389,119 @@
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0.312806324110672</v>
+      </c>
+      <c r="E65">
+        <v>0.312806324110672</v>
+      </c>
+      <c r="F65">
+        <v>0.312806324110672</v>
+      </c>
+      <c r="G65">
+        <v>0.312806324110672</v>
+      </c>
+      <c r="H65">
+        <v>0.312806324110672</v>
+      </c>
+      <c r="I65">
+        <v>0.185400365459401</v>
+      </c>
+      <c r="J65">
+        <v>0.312806324110672</v>
+      </c>
+      <c r="K65">
+        <v>0.312806324110672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>80</v>
       </c>
@@ -2219,23 +3511,119 @@
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="E69">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="F69">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="G69">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="H69">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="I69">
+        <v>0.19531323821222701</v>
+      </c>
+      <c r="J69">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="K69">
+        <v>0.32679841897233203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90</v>
       </c>
@@ -2245,23 +3633,119 @@
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0.289486166007905</v>
+      </c>
+      <c r="E73">
+        <v>0.289486166007905</v>
+      </c>
+      <c r="F73">
+        <v>0.289486166007905</v>
+      </c>
+      <c r="G73">
+        <v>0.289486166007905</v>
+      </c>
+      <c r="H73">
+        <v>0.289486166007905</v>
+      </c>
+      <c r="I73">
+        <v>0.16923930122931899</v>
+      </c>
+      <c r="J73">
+        <v>0.289486166007905</v>
+      </c>
+      <c r="K73">
+        <v>0.289486166007905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>100</v>
       </c>
@@ -2271,21 +3755,1045 @@
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0.29027667984189698</v>
+      </c>
+      <c r="E77">
+        <v>0.29027667984189698</v>
+      </c>
+      <c r="F77">
+        <v>0.29027667984189698</v>
+      </c>
+      <c r="G77">
+        <v>0.29027667984189698</v>
+      </c>
+      <c r="H77">
+        <v>0.29027667984189698</v>
+      </c>
+      <c r="I77">
+        <v>0.169779914925097</v>
+      </c>
+      <c r="J77">
+        <v>0.29027667984189698</v>
+      </c>
+      <c r="K77">
+        <v>0.29027667984189698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>4</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.76625273922571202</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.86765922249793204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.72310762041952803</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.83930639253219896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.67890017457546403</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.80874394422781504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.63893115080301699</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.77969248493442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.39359826602980702</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.56486618220489204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.322196552336947</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.48736559139784902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.32979266673475599</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.49600614439324098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.46227697034148701</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.46227697034148602</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.46227697034148701</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.46227697034148701</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.46227697034148701</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.30062433964076501</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.46227697034148701</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.46227697034148701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.279551257458096</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.43695202646815501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.261466885655808</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.41454419236677298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.24306896880944201</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.39107881365945901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.26021303228988801</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.41296673756351199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.28958771821220802</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.44911674347158198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.24995846026031601</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.39994682736618198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.213531238965494</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.35191716885265301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.22205856870559701</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.36341722793335701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.237899425242697</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.38435986056953803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.223067459837163</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.364767222025287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.20129881651555201</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.33513529481271398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.20419076313971099</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.339133581472291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.202709400297373</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.337087912087912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.202111471940257</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.33626078222852401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.207108504085117</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.34314811532553502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mutations/TreeComparisonsQuartet.xlsx
+++ b/mutations/TreeComparisonsQuartet.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11850" tabRatio="762" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Scolebythidae" sheetId="1" r:id="rId1"/>
-    <sheet name="CEA" sheetId="2" r:id="rId2"/>
-    <sheet name="OZL" sheetId="3" r:id="rId3"/>
+    <sheet name="CEA_TBR" sheetId="2" r:id="rId2"/>
+    <sheet name="OZL_TBR" sheetId="3" r:id="rId3"/>
+    <sheet name="CEA_TBR start to ideal" sheetId="4" r:id="rId4"/>
+    <sheet name="OZL_TBR start to ideal" sheetId="5" r:id="rId5"/>
+    <sheet name="CEA_ran" sheetId="6" r:id="rId6"/>
+    <sheet name="CEA_ran start to ideal" sheetId="8" r:id="rId7"/>
+    <sheet name="OZL_ran" sheetId="7" r:id="rId8"/>
+    <sheet name="OZL_ran start to ideal" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="72">
   <si>
     <t>filename</t>
   </si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>file name</t>
-  </si>
-  <si>
-    <t>Start Tree</t>
   </si>
   <si>
     <t>con.tre no.</t>
@@ -231,6 +234,21 @@
   <si>
     <t>OZL_TBRch_1.nex</t>
   </si>
+  <si>
+    <t>start tree</t>
+  </si>
+  <si>
+    <t>type of tree</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>BayesFactor</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -286,6 +304,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1491,8 +1510,8 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,13 +1535,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1554,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1589,28 +1608,28 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1618,28 +1637,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1647,28 +1666,28 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1676,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1711,28 +1730,28 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1740,28 +1759,28 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1769,28 +1788,28 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1798,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1833,28 +1852,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1862,28 +1881,28 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,28 +1910,28 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1920,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1955,28 +1974,28 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,28 +2003,28 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,28 +2032,28 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2042,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2077,28 +2096,28 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2106,28 +2125,28 @@
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,28 +2154,28 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2164,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2199,28 +2218,28 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2228,28 +2247,28 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2257,28 +2276,28 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2286,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2321,28 +2340,28 @@
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2350,28 +2369,28 @@
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2379,28 +2398,28 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2408,7 +2427,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2443,28 +2462,28 @@
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,28 +2491,28 @@
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,28 +2520,28 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2530,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2565,28 +2584,28 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2594,28 +2613,28 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2623,28 +2642,28 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2652,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2687,28 +2706,28 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2716,28 +2735,28 @@
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,28 +2764,28 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2774,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2809,28 +2828,28 @@
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2838,28 +2857,28 @@
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2867,28 +2886,28 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2896,7 +2915,7 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2931,28 +2950,28 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2960,28 +2979,28 @@
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2989,28 +3008,28 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,7 +3037,7 @@
         <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3053,28 +3072,28 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3082,28 +3101,28 @@
         <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3111,28 +3130,28 @@
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,7 +3159,7 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3175,28 +3194,28 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3204,28 +3223,28 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3233,28 +3252,28 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3262,7 +3281,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3297,28 +3316,28 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3326,28 +3345,28 @@
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3355,28 +3374,28 @@
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3384,7 +3403,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3419,28 +3438,28 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3448,28 +3467,28 @@
         <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3477,28 +3496,28 @@
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3506,7 +3525,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3541,28 +3560,28 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,28 +3589,28 @@
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3599,28 +3618,28 @@
         <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3628,7 +3647,7 @@
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3663,28 +3682,28 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3692,28 +3711,28 @@
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3721,28 +3740,28 @@
         <v>4</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3750,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3785,28 +3804,28 @@
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3814,28 +3833,28 @@
         <v>3</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3843,28 +3862,28 @@
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3897,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,7 +3915,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3919,7 +3938,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -3954,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4">
         <v>0.86765922249793204</v>
@@ -3986,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4">
         <v>0.83930639253219896</v>
@@ -4018,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4">
         <v>0.80874394422781504</v>
@@ -4050,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4">
         <v>0.77969248493442</v>
@@ -4082,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
         <v>0.56486618220489204</v>
@@ -4114,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <v>0.48736559139784902</v>
@@ -4146,7 +4165,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
         <v>0.49600614439324098</v>
@@ -4178,7 +4197,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4">
         <v>0.46227697034148701</v>
@@ -4210,7 +4229,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4">
         <v>0.43695202646815501</v>
@@ -4242,7 +4261,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4">
         <v>0.41454419236677298</v>
@@ -4274,7 +4293,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4">
         <v>0.39107881365945901</v>
@@ -4306,7 +4325,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4">
         <v>0.41296673756351199</v>
@@ -4338,7 +4357,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4">
         <v>0.44911674347158198</v>
@@ -4370,7 +4389,7 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4">
         <v>0.39994682736618198</v>
@@ -4402,7 +4421,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4">
         <v>0.35191716885265301</v>
@@ -4434,7 +4453,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4">
         <v>0.36341722793335701</v>
@@ -4466,7 +4485,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
         <v>0.38435986056953803</v>
@@ -4498,7 +4517,7 @@
         <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4">
         <v>0.364767222025287</v>
@@ -4530,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4">
         <v>0.33513529481271398</v>
@@ -4562,7 +4581,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4">
         <v>0.339133581472291</v>
@@ -4594,7 +4613,7 @@
         <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
         <v>0.337087912087912</v>
@@ -4626,7 +4645,7 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4">
         <v>0.33626078222852401</v>
@@ -4658,7 +4677,7 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4">
         <v>0.34314811532553502</v>
@@ -4799,4 +4818,4704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>0.91936758893280601</v>
+      </c>
+      <c r="D2">
+        <v>0.91936758893280601</v>
+      </c>
+      <c r="E2">
+        <v>0.91936758893280601</v>
+      </c>
+      <c r="F2">
+        <v>0.91936758893280601</v>
+      </c>
+      <c r="G2">
+        <v>0.91936758893280601</v>
+      </c>
+      <c r="H2">
+        <v>0.85076810534016101</v>
+      </c>
+      <c r="I2">
+        <v>0.91936758893280601</v>
+      </c>
+      <c r="J2">
+        <v>0.91936758893280601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>0.66893280632411101</v>
+      </c>
+      <c r="D3">
+        <v>0.66893280632411101</v>
+      </c>
+      <c r="E3">
+        <v>0.66893280632411101</v>
+      </c>
+      <c r="F3">
+        <v>0.66893280632411101</v>
+      </c>
+      <c r="G3">
+        <v>0.66893280632411101</v>
+      </c>
+      <c r="H3">
+        <v>0.50255374747594705</v>
+      </c>
+      <c r="I3">
+        <v>0.66893280632411101</v>
+      </c>
+      <c r="J3">
+        <v>0.66893280632411101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>0.629565217391304</v>
+      </c>
+      <c r="D4">
+        <v>0.629565217391304</v>
+      </c>
+      <c r="E4">
+        <v>0.629565217391304</v>
+      </c>
+      <c r="F4">
+        <v>0.629565217391304</v>
+      </c>
+      <c r="G4">
+        <v>0.629565217391304</v>
+      </c>
+      <c r="H4">
+        <v>0.45939086294416198</v>
+      </c>
+      <c r="I4">
+        <v>0.629565217391304</v>
+      </c>
+      <c r="J4">
+        <v>0.629565217391304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="D5">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="E5">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="F5">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="G5">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="H5">
+        <v>0.381381381381381</v>
+      </c>
+      <c r="I5">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="J5">
+        <v>0.55217391304347796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>0.59233201581027695</v>
+      </c>
+      <c r="D6">
+        <v>0.59233201581027695</v>
+      </c>
+      <c r="E6">
+        <v>0.59233201581027695</v>
+      </c>
+      <c r="F6">
+        <v>0.59233201581027695</v>
+      </c>
+      <c r="G6">
+        <v>0.59233201581027695</v>
+      </c>
+      <c r="H6">
+        <v>0.42078957713258802</v>
+      </c>
+      <c r="I6">
+        <v>0.59233201581027695</v>
+      </c>
+      <c r="J6">
+        <v>0.59233201581027695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>0.59660079051383397</v>
+      </c>
+      <c r="D7">
+        <v>0.59660079051383397</v>
+      </c>
+      <c r="E7">
+        <v>0.59660079051383397</v>
+      </c>
+      <c r="F7">
+        <v>0.59660079051383397</v>
+      </c>
+      <c r="G7">
+        <v>0.59660079051383397</v>
+      </c>
+      <c r="H7">
+        <v>0.42511124880301898</v>
+      </c>
+      <c r="I7">
+        <v>0.59660079051383397</v>
+      </c>
+      <c r="J7">
+        <v>0.59660079051383397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>0.51533596837944695</v>
+      </c>
+      <c r="D8">
+        <v>0.51533596837944695</v>
+      </c>
+      <c r="E8">
+        <v>0.51533596837944695</v>
+      </c>
+      <c r="F8">
+        <v>0.51533596837944695</v>
+      </c>
+      <c r="G8">
+        <v>0.51533596837944695</v>
+      </c>
+      <c r="H8">
+        <v>0.34710611788509699</v>
+      </c>
+      <c r="I8">
+        <v>0.51533596837944695</v>
+      </c>
+      <c r="J8">
+        <v>0.51533596837944695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>0.50466403162055296</v>
+      </c>
+      <c r="D9">
+        <v>0.50466403162055296</v>
+      </c>
+      <c r="E9">
+        <v>0.50466403162055296</v>
+      </c>
+      <c r="F9">
+        <v>0.50466403162055296</v>
+      </c>
+      <c r="G9">
+        <v>0.50466403162055296</v>
+      </c>
+      <c r="H9">
+        <v>0.33749207020511701</v>
+      </c>
+      <c r="I9">
+        <v>0.50466403162055296</v>
+      </c>
+      <c r="J9">
+        <v>0.50466403162055296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>0.50134387351778698</v>
+      </c>
+      <c r="D10">
+        <v>0.50134387351778698</v>
+      </c>
+      <c r="E10">
+        <v>0.50134387351778698</v>
+      </c>
+      <c r="F10">
+        <v>0.50134387351778698</v>
+      </c>
+      <c r="G10">
+        <v>0.50134387351778698</v>
+      </c>
+      <c r="H10">
+        <v>0.33452895875092298</v>
+      </c>
+      <c r="I10">
+        <v>0.50134387351778698</v>
+      </c>
+      <c r="J10">
+        <v>0.50134387351778698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>0.47881422924901201</v>
+      </c>
+      <c r="D11">
+        <v>0.47881422924901201</v>
+      </c>
+      <c r="E11">
+        <v>0.47881422924901201</v>
+      </c>
+      <c r="F11">
+        <v>0.47881422924901201</v>
+      </c>
+      <c r="G11">
+        <v>0.47881422924901201</v>
+      </c>
+      <c r="H11">
+        <v>0.31476381021670202</v>
+      </c>
+      <c r="I11">
+        <v>0.47881422924901201</v>
+      </c>
+      <c r="J11">
+        <v>0.47881422924901201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>0.349486166007905</v>
+      </c>
+      <c r="D12">
+        <v>0.349486166007905</v>
+      </c>
+      <c r="E12">
+        <v>0.349486166007905</v>
+      </c>
+      <c r="F12">
+        <v>0.349486166007905</v>
+      </c>
+      <c r="G12">
+        <v>0.349486166007905</v>
+      </c>
+      <c r="H12">
+        <v>0.211743857464438</v>
+      </c>
+      <c r="I12">
+        <v>0.349486166007905</v>
+      </c>
+      <c r="J12">
+        <v>0.349486166007905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>0.34901185770750998</v>
+      </c>
+      <c r="D13">
+        <v>0.34901185770750998</v>
+      </c>
+      <c r="E13">
+        <v>0.34901185770750998</v>
+      </c>
+      <c r="F13">
+        <v>0.34901185770750998</v>
+      </c>
+      <c r="G13">
+        <v>0.34901185770750998</v>
+      </c>
+      <c r="H13">
+        <v>0.21139573856835001</v>
+      </c>
+      <c r="I13">
+        <v>0.34901185770750998</v>
+      </c>
+      <c r="J13">
+        <v>0.34901185770750998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>0.352173913043478</v>
+      </c>
+      <c r="D14">
+        <v>0.352173913043478</v>
+      </c>
+      <c r="E14">
+        <v>0.352173913043478</v>
+      </c>
+      <c r="F14">
+        <v>0.352173913043478</v>
+      </c>
+      <c r="G14">
+        <v>0.352173913043478</v>
+      </c>
+      <c r="H14">
+        <v>0.213720316622691</v>
+      </c>
+      <c r="I14">
+        <v>0.352173913043478</v>
+      </c>
+      <c r="J14">
+        <v>0.352173913043478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>0.42830039525691699</v>
+      </c>
+      <c r="D15">
+        <v>0.42830039525691699</v>
+      </c>
+      <c r="E15">
+        <v>0.42830039525691699</v>
+      </c>
+      <c r="F15">
+        <v>0.42830039525691699</v>
+      </c>
+      <c r="G15">
+        <v>0.42830039525691699</v>
+      </c>
+      <c r="H15">
+        <v>0.27250779599637898</v>
+      </c>
+      <c r="I15">
+        <v>0.42830039525691699</v>
+      </c>
+      <c r="J15">
+        <v>0.42830039525691699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>0.37304347826086998</v>
+      </c>
+      <c r="D16">
+        <v>0.37304347826086998</v>
+      </c>
+      <c r="E16">
+        <v>0.37304347826086998</v>
+      </c>
+      <c r="F16">
+        <v>0.37304347826086998</v>
+      </c>
+      <c r="G16">
+        <v>0.37304347826086998</v>
+      </c>
+      <c r="H16">
+        <v>0.229289150187066</v>
+      </c>
+      <c r="I16">
+        <v>0.37304347826086998</v>
+      </c>
+      <c r="J16">
+        <v>0.37304347826086998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>0.32822134387351798</v>
+      </c>
+      <c r="D17">
+        <v>0.32822134387351798</v>
+      </c>
+      <c r="E17">
+        <v>0.32822134387351798</v>
+      </c>
+      <c r="F17">
+        <v>0.32822134387351798</v>
+      </c>
+      <c r="G17">
+        <v>0.32822134387351798</v>
+      </c>
+      <c r="H17">
+        <v>0.19633062228106701</v>
+      </c>
+      <c r="I17">
+        <v>0.32822134387351798</v>
+      </c>
+      <c r="J17">
+        <v>0.32822134387351798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>0.33343873517786599</v>
+      </c>
+      <c r="D18">
+        <v>0.33343873517786599</v>
+      </c>
+      <c r="E18">
+        <v>0.33343873517786599</v>
+      </c>
+      <c r="F18">
+        <v>0.33343873517786599</v>
+      </c>
+      <c r="G18">
+        <v>0.33343873517786599</v>
+      </c>
+      <c r="H18">
+        <v>0.200075894127692</v>
+      </c>
+      <c r="I18">
+        <v>0.33343873517786599</v>
+      </c>
+      <c r="J18">
+        <v>0.33343873517786599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>0.29675889328063199</v>
+      </c>
+      <c r="D19">
+        <v>0.29675889328063199</v>
+      </c>
+      <c r="E19">
+        <v>0.29675889328063199</v>
+      </c>
+      <c r="F19">
+        <v>0.29675889328063199</v>
+      </c>
+      <c r="G19">
+        <v>0.29675889328063199</v>
+      </c>
+      <c r="H19">
+        <v>0.174231875986262</v>
+      </c>
+      <c r="I19">
+        <v>0.29675889328063199</v>
+      </c>
+      <c r="J19">
+        <v>0.29675889328063199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>0.29335968379446598</v>
+      </c>
+      <c r="D20">
+        <v>0.29335968379446598</v>
+      </c>
+      <c r="E20">
+        <v>0.29335968379446598</v>
+      </c>
+      <c r="F20">
+        <v>0.29335968379446598</v>
+      </c>
+      <c r="G20">
+        <v>0.29335968379446598</v>
+      </c>
+      <c r="H20">
+        <v>0.17189309370512801</v>
+      </c>
+      <c r="I20">
+        <v>0.29335968379446598</v>
+      </c>
+      <c r="J20">
+        <v>0.29335968379446598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D21">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E21">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F21">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G21">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H21">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I21">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J21">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>0.96379446640316202</v>
+      </c>
+      <c r="D22">
+        <v>0.93359683794466397</v>
+      </c>
+      <c r="E22">
+        <v>0.96266710140202105</v>
+      </c>
+      <c r="F22">
+        <v>0.96266710140202105</v>
+      </c>
+      <c r="G22">
+        <v>0.94790914198571297</v>
+      </c>
+      <c r="H22">
+        <v>0.900976502898993</v>
+      </c>
+      <c r="I22">
+        <v>0.93359683794466397</v>
+      </c>
+      <c r="J22">
+        <v>0.94869565217391305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>0.95683794466403205</v>
+      </c>
+      <c r="D23">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E23">
+        <v>0.955853816300129</v>
+      </c>
+      <c r="F23">
+        <v>0.955853816300129</v>
+      </c>
+      <c r="G23">
+        <v>0.945079542729235</v>
+      </c>
+      <c r="H23">
+        <v>0.89587753864807496</v>
+      </c>
+      <c r="I23">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J23">
+        <v>0.94569169960474297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>0.959525691699605</v>
+      </c>
+      <c r="D24">
+        <v>0.94055335968379405</v>
+      </c>
+      <c r="E24">
+        <v>0.958742949234488</v>
+      </c>
+      <c r="F24">
+        <v>0.958742949234488</v>
+      </c>
+      <c r="G24">
+        <v>0.94956105347166797</v>
+      </c>
+      <c r="H24">
+        <v>0.903965962619663</v>
+      </c>
+      <c r="I24">
+        <v>0.94055335968379405</v>
+      </c>
+      <c r="J24">
+        <v>0.95003952569170003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="D25">
+        <v>0.94387351778656103</v>
+      </c>
+      <c r="E25">
+        <v>0.96212731668009699</v>
+      </c>
+      <c r="F25">
+        <v>0.96212731668009699</v>
+      </c>
+      <c r="G25">
+        <v>0.95291300877893104</v>
+      </c>
+      <c r="H25">
+        <v>0.91006097560975596</v>
+      </c>
+      <c r="I25">
+        <v>0.94387351778656103</v>
+      </c>
+      <c r="J25">
+        <v>0.95335968379446601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="D26">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="E26">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="F26">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="G26">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="H26">
+        <v>0.92835365853658502</v>
+      </c>
+      <c r="I26">
+        <v>0.96284584980237198</v>
+      </c>
+      <c r="J26">
+        <v>0.96284584980237198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D27">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E27">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F27">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G27">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H27">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I27">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J27">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D28">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E28">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F28">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G28">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H28">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I28">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J28">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E29">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F29">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G29">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H29">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J29">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D30">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E30">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="F30">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="G30">
+        <v>0.93917781873547601</v>
+      </c>
+      <c r="H30">
+        <v>0.88533011028856301</v>
+      </c>
+      <c r="I30">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J30">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H31">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J31">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D32">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E32">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F32">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G32">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H32">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I32">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J32">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D33">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E33">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F33">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G33">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H33">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I33">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J33">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E34">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F34">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G34">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H34">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J34">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D35">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E35">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="F35">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="G35">
+        <v>0.93917781873547601</v>
+      </c>
+      <c r="H35">
+        <v>0.88533011028856301</v>
+      </c>
+      <c r="I35">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J35">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D36">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E36">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F36">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G36">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H36">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I36">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J36">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="D37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="F37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="G37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="H37">
+        <v>0.86303387334315196</v>
+      </c>
+      <c r="I37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J37">
+        <v>0.92648221343873505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H38">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J38">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H39">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J39">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>0.92034739454094305</v>
+      </c>
+      <c r="D2">
+        <v>0.92034739454094305</v>
+      </c>
+      <c r="E2">
+        <v>0.92034739454094305</v>
+      </c>
+      <c r="F2">
+        <v>0.92034739454094305</v>
+      </c>
+      <c r="G2">
+        <v>0.92034739454094305</v>
+      </c>
+      <c r="H2">
+        <v>0.85244771316938595</v>
+      </c>
+      <c r="I2">
+        <v>0.92034739454094305</v>
+      </c>
+      <c r="J2">
+        <v>0.92034739454094305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>0.81437581235968304</v>
+      </c>
+      <c r="D3">
+        <v>0.81437581235968304</v>
+      </c>
+      <c r="E3">
+        <v>0.81437581235968304</v>
+      </c>
+      <c r="F3">
+        <v>0.81437581235968304</v>
+      </c>
+      <c r="G3">
+        <v>0.81437581235968304</v>
+      </c>
+      <c r="H3">
+        <v>0.68687516740063403</v>
+      </c>
+      <c r="I3">
+        <v>0.81437581235968304</v>
+      </c>
+      <c r="J3">
+        <v>0.81437581235968304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>0.60920329670329698</v>
+      </c>
+      <c r="D4">
+        <v>0.60920329670329698</v>
+      </c>
+      <c r="E4">
+        <v>0.60920329670329698</v>
+      </c>
+      <c r="F4">
+        <v>0.60920329670329698</v>
+      </c>
+      <c r="G4">
+        <v>0.60920329670329698</v>
+      </c>
+      <c r="H4">
+        <v>0.43802469135802502</v>
+      </c>
+      <c r="I4">
+        <v>0.60920329670329698</v>
+      </c>
+      <c r="J4">
+        <v>0.60920329670329698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>0.50603509393832002</v>
+      </c>
+      <c r="D5">
+        <v>0.50603509393832002</v>
+      </c>
+      <c r="E5">
+        <v>0.50603509393832002</v>
+      </c>
+      <c r="F5">
+        <v>0.50603509393832002</v>
+      </c>
+      <c r="G5">
+        <v>0.50603509393832002</v>
+      </c>
+      <c r="H5">
+        <v>0.338719532088813</v>
+      </c>
+      <c r="I5">
+        <v>0.50603509393832002</v>
+      </c>
+      <c r="J5">
+        <v>0.50603509393832002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>0.514879475363346</v>
+      </c>
+      <c r="D6">
+        <v>0.514879475363346</v>
+      </c>
+      <c r="E6">
+        <v>0.514879475363346</v>
+      </c>
+      <c r="F6">
+        <v>0.514879475363346</v>
+      </c>
+      <c r="G6">
+        <v>0.514879475363346</v>
+      </c>
+      <c r="H6">
+        <v>0.34669204742781101</v>
+      </c>
+      <c r="I6">
+        <v>0.514879475363346</v>
+      </c>
+      <c r="J6">
+        <v>0.514879475363346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>0.48135708377643899</v>
+      </c>
+      <c r="D7">
+        <v>0.48135708377643899</v>
+      </c>
+      <c r="E7">
+        <v>0.48135708377643899</v>
+      </c>
+      <c r="F7">
+        <v>0.48135708377643899</v>
+      </c>
+      <c r="G7">
+        <v>0.48135708377643899</v>
+      </c>
+      <c r="H7">
+        <v>0.31696528435627203</v>
+      </c>
+      <c r="I7">
+        <v>0.48135708377643899</v>
+      </c>
+      <c r="J7">
+        <v>0.48135708377643899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>0.45710002363228203</v>
+      </c>
+      <c r="D8">
+        <v>0.45710002363228203</v>
+      </c>
+      <c r="E8">
+        <v>0.45710002363228203</v>
+      </c>
+      <c r="F8">
+        <v>0.45710002363228203</v>
+      </c>
+      <c r="G8">
+        <v>0.45710002363228203</v>
+      </c>
+      <c r="H8">
+        <v>0.29626030892059702</v>
+      </c>
+      <c r="I8">
+        <v>0.45710002363228203</v>
+      </c>
+      <c r="J8">
+        <v>0.45710002363228203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>0.433144275079759</v>
+      </c>
+      <c r="D9">
+        <v>0.433144275079759</v>
+      </c>
+      <c r="E9">
+        <v>0.433144275079759</v>
+      </c>
+      <c r="F9">
+        <v>0.433144275079759</v>
+      </c>
+      <c r="G9">
+        <v>0.433144275079759</v>
+      </c>
+      <c r="H9">
+        <v>0.27644170946358698</v>
+      </c>
+      <c r="I9">
+        <v>0.433144275079759</v>
+      </c>
+      <c r="J9">
+        <v>0.433144275079759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>0.40198658868013698</v>
+      </c>
+      <c r="D10">
+        <v>0.40198658868013698</v>
+      </c>
+      <c r="E10">
+        <v>0.40198658868013698</v>
+      </c>
+      <c r="F10">
+        <v>0.40198658868013698</v>
+      </c>
+      <c r="G10">
+        <v>0.40198658868013698</v>
+      </c>
+      <c r="H10">
+        <v>0.25155395182079299</v>
+      </c>
+      <c r="I10">
+        <v>0.40198658868013698</v>
+      </c>
+      <c r="J10">
+        <v>0.40198658868013698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>0.42143595651660198</v>
+      </c>
+      <c r="D11">
+        <v>0.42143595651660198</v>
+      </c>
+      <c r="E11">
+        <v>0.42143595651660198</v>
+      </c>
+      <c r="F11">
+        <v>0.42143595651660198</v>
+      </c>
+      <c r="G11">
+        <v>0.42143595651660198</v>
+      </c>
+      <c r="H11">
+        <v>0.26697425312350598</v>
+      </c>
+      <c r="I11">
+        <v>0.42143595651660198</v>
+      </c>
+      <c r="J11">
+        <v>0.42143595651660198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>0.440576627673402</v>
+      </c>
+      <c r="D12">
+        <v>0.440576627673402</v>
+      </c>
+      <c r="E12">
+        <v>0.440576627673402</v>
+      </c>
+      <c r="F12">
+        <v>0.440576627673402</v>
+      </c>
+      <c r="G12">
+        <v>0.440576627673402</v>
+      </c>
+      <c r="H12">
+        <v>0.282525345901465</v>
+      </c>
+      <c r="I12">
+        <v>0.440576627673402</v>
+      </c>
+      <c r="J12">
+        <v>0.440576627673402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>0.414940033085194</v>
+      </c>
+      <c r="D13">
+        <v>0.414940033085194</v>
+      </c>
+      <c r="E13">
+        <v>0.414940033085194</v>
+      </c>
+      <c r="F13">
+        <v>0.414940033085194</v>
+      </c>
+      <c r="G13">
+        <v>0.414940033085194</v>
+      </c>
+      <c r="H13">
+        <v>0.26178191472013701</v>
+      </c>
+      <c r="I13">
+        <v>0.414940033085194</v>
+      </c>
+      <c r="J13">
+        <v>0.414940033085194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>0.36241876403166701</v>
+      </c>
+      <c r="D14">
+        <v>0.36241876403166701</v>
+      </c>
+      <c r="E14">
+        <v>0.36241876403166701</v>
+      </c>
+      <c r="F14">
+        <v>0.36241876403166701</v>
+      </c>
+      <c r="G14">
+        <v>0.36241876403166701</v>
+      </c>
+      <c r="H14">
+        <v>0.22131345674424599</v>
+      </c>
+      <c r="I14">
+        <v>0.36241876403166701</v>
+      </c>
+      <c r="J14">
+        <v>0.36241876403166701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>0.37871174524400297</v>
+      </c>
+      <c r="D15">
+        <v>0.37871174524400297</v>
+      </c>
+      <c r="E15">
+        <v>0.37871174524400297</v>
+      </c>
+      <c r="F15">
+        <v>0.37871174524400297</v>
+      </c>
+      <c r="G15">
+        <v>0.37871174524400297</v>
+      </c>
+      <c r="H15">
+        <v>0.23358692948836501</v>
+      </c>
+      <c r="I15">
+        <v>0.37871174524400297</v>
+      </c>
+      <c r="J15">
+        <v>0.37871174524400297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>0.389846980976013</v>
+      </c>
+      <c r="D16">
+        <v>0.389846980976013</v>
+      </c>
+      <c r="E16">
+        <v>0.389846980976013</v>
+      </c>
+      <c r="F16">
+        <v>0.389846980976013</v>
+      </c>
+      <c r="G16">
+        <v>0.389846980976013</v>
+      </c>
+      <c r="H16">
+        <v>0.242117970385401</v>
+      </c>
+      <c r="I16">
+        <v>0.389846980976013</v>
+      </c>
+      <c r="J16">
+        <v>0.389846980976013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="D17">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="E17">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="F17">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="G17">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="H17">
+        <v>0.22627626172659299</v>
+      </c>
+      <c r="I17">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="J17">
+        <v>0.36904614203001301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="D18">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="E18">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="F18">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="G18">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="H18">
+        <v>0.22627626172659299</v>
+      </c>
+      <c r="I18">
+        <v>0.36904614203001301</v>
+      </c>
+      <c r="J18">
+        <v>0.36904614203001301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>0.34440948836110102</v>
+      </c>
+      <c r="D19">
+        <v>0.34440948836110102</v>
+      </c>
+      <c r="E19">
+        <v>0.34440948836110102</v>
+      </c>
+      <c r="F19">
+        <v>0.34440948836110102</v>
+      </c>
+      <c r="G19">
+        <v>0.34440948836110102</v>
+      </c>
+      <c r="H19">
+        <v>0.20802818446945801</v>
+      </c>
+      <c r="I19">
+        <v>0.34440948836110102</v>
+      </c>
+      <c r="J19">
+        <v>0.34440948836110102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>0.34157213753987897</v>
+      </c>
+      <c r="D20">
+        <v>0.34157213753987897</v>
+      </c>
+      <c r="E20">
+        <v>0.34157213753987897</v>
+      </c>
+      <c r="F20">
+        <v>0.34157213753987897</v>
+      </c>
+      <c r="G20">
+        <v>0.34157213753987897</v>
+      </c>
+      <c r="H20">
+        <v>0.20596140795246301</v>
+      </c>
+      <c r="I20">
+        <v>0.34157213753987897</v>
+      </c>
+      <c r="J20">
+        <v>0.34157213753987897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>0.34134024577573002</v>
+      </c>
+      <c r="D21">
+        <v>0.34134024577573002</v>
+      </c>
+      <c r="E21">
+        <v>0.34134024577573002</v>
+      </c>
+      <c r="F21">
+        <v>0.34134024577573002</v>
+      </c>
+      <c r="G21">
+        <v>0.34134024577573002</v>
+      </c>
+      <c r="H21">
+        <v>0.205792806454974</v>
+      </c>
+      <c r="I21">
+        <v>0.34134024577573002</v>
+      </c>
+      <c r="J21">
+        <v>0.34134024577573002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>0.34488508803024898</v>
+      </c>
+      <c r="D22">
+        <v>0.34488508803024898</v>
+      </c>
+      <c r="E22">
+        <v>0.34488508803024898</v>
+      </c>
+      <c r="F22">
+        <v>0.34488508803024898</v>
+      </c>
+      <c r="G22">
+        <v>0.34488508803024898</v>
+      </c>
+      <c r="H22">
+        <v>0.20837531311937901</v>
+      </c>
+      <c r="I22">
+        <v>0.34488508803024898</v>
+      </c>
+      <c r="J22">
+        <v>0.34488508803024898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>0.94553940682972903</v>
+      </c>
+      <c r="D23">
+        <v>0.94553940682972903</v>
+      </c>
+      <c r="E23">
+        <v>0.94553940682972903</v>
+      </c>
+      <c r="F23">
+        <v>0.94553940682972903</v>
+      </c>
+      <c r="G23">
+        <v>0.94553940682972903</v>
+      </c>
+      <c r="H23">
+        <v>0.89670435571891205</v>
+      </c>
+      <c r="I23">
+        <v>0.94553940682972903</v>
+      </c>
+      <c r="J23">
+        <v>0.94553940682972903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>0.93858265390523499</v>
+      </c>
+      <c r="D24">
+        <v>0.93858265390523499</v>
+      </c>
+      <c r="E24">
+        <v>0.93858265390523499</v>
+      </c>
+      <c r="F24">
+        <v>0.93858265390523499</v>
+      </c>
+      <c r="G24">
+        <v>0.93858265390523499</v>
+      </c>
+      <c r="H24">
+        <v>0.88427295574029197</v>
+      </c>
+      <c r="I24">
+        <v>0.93858265390523499</v>
+      </c>
+      <c r="J24">
+        <v>0.93858265390523499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>0.92575032494387299</v>
+      </c>
+      <c r="D25">
+        <v>0.92575032494387299</v>
+      </c>
+      <c r="E25">
+        <v>0.92575032494387299</v>
+      </c>
+      <c r="F25">
+        <v>0.92575032494387299</v>
+      </c>
+      <c r="G25">
+        <v>0.92575032494387299</v>
+      </c>
+      <c r="H25">
+        <v>0.86176458456504101</v>
+      </c>
+      <c r="I25">
+        <v>0.92575032494387299</v>
+      </c>
+      <c r="J25">
+        <v>0.92575032494387299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>0.93242644452321899</v>
+      </c>
+      <c r="D26">
+        <v>0.93242644452321899</v>
+      </c>
+      <c r="E26">
+        <v>0.93242644452321899</v>
+      </c>
+      <c r="F26">
+        <v>0.93242644452321899</v>
+      </c>
+      <c r="G26">
+        <v>0.93242644452321899</v>
+      </c>
+      <c r="H26">
+        <v>0.87340721371352703</v>
+      </c>
+      <c r="I26">
+        <v>0.93242644452321899</v>
+      </c>
+      <c r="J26">
+        <v>0.93242644452321899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>0.93233191539643201</v>
+      </c>
+      <c r="D27">
+        <v>0.93233191539643201</v>
+      </c>
+      <c r="E27">
+        <v>0.93233191539643201</v>
+      </c>
+      <c r="F27">
+        <v>0.93233191539643201</v>
+      </c>
+      <c r="G27">
+        <v>0.93233191539643201</v>
+      </c>
+      <c r="H27">
+        <v>0.87324134610861903</v>
+      </c>
+      <c r="I27">
+        <v>0.93233191539643201</v>
+      </c>
+      <c r="J27">
+        <v>0.93233191539643201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>0.92854336523691405</v>
+      </c>
+      <c r="D28">
+        <v>0.92854336523691405</v>
+      </c>
+      <c r="E28">
+        <v>0.92854336523691405</v>
+      </c>
+      <c r="F28">
+        <v>0.92854336523691405</v>
+      </c>
+      <c r="G28">
+        <v>0.92854336523691405</v>
+      </c>
+      <c r="H28">
+        <v>0.86661777538222695</v>
+      </c>
+      <c r="I28">
+        <v>0.92854336523691405</v>
+      </c>
+      <c r="J28">
+        <v>0.92854336523691405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>0.92795403521209996</v>
+      </c>
+      <c r="D29">
+        <v>0.92795403521209996</v>
+      </c>
+      <c r="E29">
+        <v>0.92795403521209996</v>
+      </c>
+      <c r="F29">
+        <v>0.92795403521209996</v>
+      </c>
+      <c r="G29">
+        <v>0.92795403521209996</v>
+      </c>
+      <c r="H29">
+        <v>0.86559164969730695</v>
+      </c>
+      <c r="I29">
+        <v>0.92795403521209996</v>
+      </c>
+      <c r="J29">
+        <v>0.92795403521209996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>0.92750206782464895</v>
+      </c>
+      <c r="D30">
+        <v>0.92750206782464895</v>
+      </c>
+      <c r="E30">
+        <v>0.92750206782464895</v>
+      </c>
+      <c r="F30">
+        <v>0.92750206782464895</v>
+      </c>
+      <c r="G30">
+        <v>0.92750206782464895</v>
+      </c>
+      <c r="H30">
+        <v>0.86480546022442495</v>
+      </c>
+      <c r="I30">
+        <v>0.92750206782464895</v>
+      </c>
+      <c r="J30">
+        <v>0.92750206782464895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>0.91762968214581098</v>
+      </c>
+      <c r="D31">
+        <v>0.91762968214581098</v>
+      </c>
+      <c r="E31">
+        <v>0.91762968214581098</v>
+      </c>
+      <c r="F31">
+        <v>0.91762968214581098</v>
+      </c>
+      <c r="G31">
+        <v>0.91762968214581098</v>
+      </c>
+      <c r="H31">
+        <v>0.84779642143644696</v>
+      </c>
+      <c r="I31">
+        <v>0.91762968214581098</v>
+      </c>
+      <c r="J31">
+        <v>0.91762968214581098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>0.90925646933711401</v>
+      </c>
+      <c r="D32">
+        <v>0.90925646933711401</v>
+      </c>
+      <c r="E32">
+        <v>0.90925646933711401</v>
+      </c>
+      <c r="F32">
+        <v>0.90925646933711401</v>
+      </c>
+      <c r="G32">
+        <v>0.90925646933711401</v>
+      </c>
+      <c r="H32">
+        <v>0.83361160875694196</v>
+      </c>
+      <c r="I32">
+        <v>0.90925646933711401</v>
+      </c>
+      <c r="J32">
+        <v>0.90925646933711401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>0.91614380243412497</v>
+      </c>
+      <c r="D33">
+        <v>0.91614380243412497</v>
+      </c>
+      <c r="E33">
+        <v>0.91614380243412497</v>
+      </c>
+      <c r="F33">
+        <v>0.91614380243412497</v>
+      </c>
+      <c r="G33">
+        <v>0.91614380243412497</v>
+      </c>
+      <c r="H33">
+        <v>0.84526324109379203</v>
+      </c>
+      <c r="I33">
+        <v>0.91614380243412497</v>
+      </c>
+      <c r="J33">
+        <v>0.91614380243412497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>0.92207845917523301</v>
+      </c>
+      <c r="D34">
+        <v>0.92207845917523301</v>
+      </c>
+      <c r="E34">
+        <v>0.92207845917523301</v>
+      </c>
+      <c r="F34">
+        <v>0.92207845917523301</v>
+      </c>
+      <c r="G34">
+        <v>0.92207845917523301</v>
+      </c>
+      <c r="H34">
+        <v>0.85542261125026697</v>
+      </c>
+      <c r="I34">
+        <v>0.92207845917523301</v>
+      </c>
+      <c r="J34">
+        <v>0.92207845917523301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>0.91927212572373895</v>
+      </c>
+      <c r="D35">
+        <v>0.91927212572373895</v>
+      </c>
+      <c r="E35">
+        <v>0.91927212572373895</v>
+      </c>
+      <c r="F35">
+        <v>0.91927212572373895</v>
+      </c>
+      <c r="G35">
+        <v>0.91927212572373895</v>
+      </c>
+      <c r="H35">
+        <v>0.85060462268483095</v>
+      </c>
+      <c r="I35">
+        <v>0.91927212572373895</v>
+      </c>
+      <c r="J35">
+        <v>0.91927212572373895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="D36">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="E36">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="F36">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="G36">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="H36">
+        <v>0.84575875422734204</v>
+      </c>
+      <c r="I36">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="J36">
+        <v>0.91643477490251701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="D37">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="E37">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="F37">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="G37">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="H37">
+        <v>0.84575875422734204</v>
+      </c>
+      <c r="I37">
+        <v>0.91643477490251701</v>
+      </c>
+      <c r="J37">
+        <v>0.91643477490251701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>0.91551016188112999</v>
+      </c>
+      <c r="D38">
+        <v>0.91551016188112999</v>
+      </c>
+      <c r="E38">
+        <v>0.91551016188112999</v>
+      </c>
+      <c r="F38">
+        <v>0.91551016188112999</v>
+      </c>
+      <c r="G38">
+        <v>0.91551016188112999</v>
+      </c>
+      <c r="H38">
+        <v>0.84418509948341303</v>
+      </c>
+      <c r="I38">
+        <v>0.91551016188112999</v>
+      </c>
+      <c r="J38">
+        <v>0.91551016188112999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <v>0.91455600850762098</v>
+      </c>
+      <c r="D39">
+        <v>0.91455600850762098</v>
+      </c>
+      <c r="E39">
+        <v>0.91455600850762098</v>
+      </c>
+      <c r="F39">
+        <v>0.91455600850762098</v>
+      </c>
+      <c r="G39">
+        <v>0.91455600850762098</v>
+      </c>
+      <c r="H39">
+        <v>0.84256397904989699</v>
+      </c>
+      <c r="I39">
+        <v>0.91455600850762098</v>
+      </c>
+      <c r="J39">
+        <v>0.91455600850762098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="D40">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="E40">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="F40">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="G40">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="H40">
+        <v>0.86105067558745396</v>
+      </c>
+      <c r="I40">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="J40">
+        <v>0.92533823703178497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="D41">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="E41">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="F41">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="G41">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="H41">
+        <v>0.86105067558745396</v>
+      </c>
+      <c r="I41">
+        <v>0.92533823703178497</v>
+      </c>
+      <c r="J41">
+        <v>0.92533823703178497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>0.92372090275316099</v>
+      </c>
+      <c r="D42">
+        <v>0.92372090275316099</v>
+      </c>
+      <c r="E42">
+        <v>0.92372090275316099</v>
+      </c>
+      <c r="F42">
+        <v>0.92372090275316099</v>
+      </c>
+      <c r="G42">
+        <v>0.92372090275316099</v>
+      </c>
+      <c r="H42">
+        <v>0.85825405800044996</v>
+      </c>
+      <c r="I42">
+        <v>0.92372090275316099</v>
+      </c>
+      <c r="J42">
+        <v>0.92372090275316099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>0.92385678837291696</v>
+      </c>
+      <c r="D43">
+        <v>0.92385678837291696</v>
+      </c>
+      <c r="E43">
+        <v>0.92385678837291696</v>
+      </c>
+      <c r="F43">
+        <v>0.92385678837291696</v>
+      </c>
+      <c r="G43">
+        <v>0.92385678837291696</v>
+      </c>
+      <c r="H43">
+        <v>0.85848870149548695</v>
+      </c>
+      <c r="I43">
+        <v>0.92385678837291696</v>
+      </c>
+      <c r="J43">
+        <v>0.92385678837291696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>0.64648221343873502</v>
+      </c>
+      <c r="D2">
+        <v>0.64648221343873502</v>
+      </c>
+      <c r="E2">
+        <v>0.64648221343873502</v>
+      </c>
+      <c r="F2">
+        <v>0.64648221343873502</v>
+      </c>
+      <c r="G2">
+        <v>0.64648221343873502</v>
+      </c>
+      <c r="H2">
+        <v>0.47763111786006301</v>
+      </c>
+      <c r="I2">
+        <v>0.64648221343873502</v>
+      </c>
+      <c r="J2">
+        <v>0.64648221343873502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>0.32679841897233203</v>
+      </c>
+      <c r="D3">
+        <v>0.31873517786561301</v>
+      </c>
+      <c r="E3">
+        <v>0.32132610774625397</v>
+      </c>
+      <c r="F3">
+        <v>0.32132610774625397</v>
+      </c>
+      <c r="G3">
+        <v>0.32002539884117798</v>
+      </c>
+      <c r="H3">
+        <v>0.19049418879334801</v>
+      </c>
+      <c r="I3">
+        <v>0.31873517786561301</v>
+      </c>
+      <c r="J3">
+        <v>0.32276679841897199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="D4">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="E4">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="F4">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="G4">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="H4">
+        <v>0.17954216979812601</v>
+      </c>
+      <c r="I4">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="J4">
+        <v>0.30442687747035602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>0.315335968379447</v>
+      </c>
+      <c r="D5">
+        <v>0.296363636363636</v>
+      </c>
+      <c r="E5">
+        <v>0.30209508460918599</v>
+      </c>
+      <c r="F5">
+        <v>0.30209508460918599</v>
+      </c>
+      <c r="G5">
+        <v>0.29920191540303298</v>
+      </c>
+      <c r="H5">
+        <v>0.175918539721271</v>
+      </c>
+      <c r="I5">
+        <v>0.296363636363636</v>
+      </c>
+      <c r="J5">
+        <v>0.30584980237154102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="D6">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="E6">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="F6">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="G6">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="H6">
+        <v>0.17954216979812601</v>
+      </c>
+      <c r="I6">
+        <v>0.30442687747035602</v>
+      </c>
+      <c r="J6">
+        <v>0.30442687747035602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>0.37565217391304401</v>
+      </c>
+      <c r="D7">
+        <v>0.36758893280632399</v>
+      </c>
+      <c r="E7">
+        <v>0.37057698437998099</v>
+      </c>
+      <c r="F7">
+        <v>0.37057698437998099</v>
+      </c>
+      <c r="G7">
+        <v>0.36907691086594202</v>
+      </c>
+      <c r="H7">
+        <v>0.22629939653494299</v>
+      </c>
+      <c r="I7">
+        <v>0.36758893280632399</v>
+      </c>
+      <c r="J7">
+        <v>0.37162055335968402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>0.354545454545454</v>
+      </c>
+      <c r="D8">
+        <v>0.335573122529644</v>
+      </c>
+      <c r="E8">
+        <v>0.34206285253827601</v>
+      </c>
+      <c r="F8">
+        <v>0.34206285253827601</v>
+      </c>
+      <c r="G8">
+        <v>0.33878691141261003</v>
+      </c>
+      <c r="H8">
+        <v>0.203939466730723</v>
+      </c>
+      <c r="I8">
+        <v>0.335573122529644</v>
+      </c>
+      <c r="J8">
+        <v>0.34505928853754902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="D9">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="E9">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="F9">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="G9">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="H9">
+        <v>0.22696411251212401</v>
+      </c>
+      <c r="I9">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="J9">
+        <v>0.36996047430829998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>0.376758893280632</v>
+      </c>
+      <c r="D10">
+        <v>0.36869565217391298</v>
+      </c>
+      <c r="E10">
+        <v>0.37169270003187799</v>
+      </c>
+      <c r="F10">
+        <v>0.37169270003187799</v>
+      </c>
+      <c r="G10">
+        <v>0.37018811016747399</v>
+      </c>
+      <c r="H10">
+        <v>0.227135482614201</v>
+      </c>
+      <c r="I10">
+        <v>0.36869565217391298</v>
+      </c>
+      <c r="J10">
+        <v>0.37272727272727302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="D11">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="E11">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="F11">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="G11">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="H11">
+        <v>0.22696411251212401</v>
+      </c>
+      <c r="I11">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="J11">
+        <v>0.36996047430829998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>0.376758893280632</v>
+      </c>
+      <c r="D12">
+        <v>0.36869565217391298</v>
+      </c>
+      <c r="E12">
+        <v>0.37169270003187799</v>
+      </c>
+      <c r="F12">
+        <v>0.37169270003187799</v>
+      </c>
+      <c r="G12">
+        <v>0.37018811016747399</v>
+      </c>
+      <c r="H12">
+        <v>0.227135482614201</v>
+      </c>
+      <c r="I12">
+        <v>0.36869565217391298</v>
+      </c>
+      <c r="J12">
+        <v>0.37272727272727302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>0.38679841897233203</v>
+      </c>
+      <c r="D13">
+        <v>0.36782608695652202</v>
+      </c>
+      <c r="E13">
+        <v>0.374939564867043</v>
+      </c>
+      <c r="F13">
+        <v>0.374939564867043</v>
+      </c>
+      <c r="G13">
+        <v>0.37134876296887498</v>
+      </c>
+      <c r="H13">
+        <v>0.228009996569804</v>
+      </c>
+      <c r="I13">
+        <v>0.36782608695652202</v>
+      </c>
+      <c r="J13">
+        <v>0.377312252964427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="D14">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="E14">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="F14">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="G14">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="H14">
+        <v>0.22696411251212401</v>
+      </c>
+      <c r="I14">
+        <v>0.36996047430829998</v>
+      </c>
+      <c r="J14">
+        <v>0.36996047430829998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>0.34996047430830002</v>
+      </c>
+      <c r="D15">
+        <v>0.34996047430830002</v>
+      </c>
+      <c r="E15">
+        <v>0.34996047430830002</v>
+      </c>
+      <c r="F15">
+        <v>0.34996047430830002</v>
+      </c>
+      <c r="G15">
+        <v>0.34996047430830002</v>
+      </c>
+      <c r="H15">
+        <v>0.212092176495952</v>
+      </c>
+      <c r="I15">
+        <v>0.34996047430830002</v>
+      </c>
+      <c r="J15">
+        <v>0.34996047430830002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>0.31051383399209498</v>
+      </c>
+      <c r="D16">
+        <v>0.28347826086956501</v>
+      </c>
+      <c r="E16">
+        <v>0.29135521611959703</v>
+      </c>
+      <c r="F16">
+        <v>0.29135521611959703</v>
+      </c>
+      <c r="G16">
+        <v>0.28736276945268002</v>
+      </c>
+      <c r="H16">
+        <v>0.16778963129328101</v>
+      </c>
+      <c r="I16">
+        <v>0.28347826086956501</v>
+      </c>
+      <c r="J16">
+        <v>0.29699604743083002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <v>0.35865612648221301</v>
+      </c>
+      <c r="D17">
+        <v>0.33162055335968399</v>
+      </c>
+      <c r="E17">
+        <v>0.340835229119272</v>
+      </c>
+      <c r="F17">
+        <v>0.340835229119272</v>
+      </c>
+      <c r="G17">
+        <v>0.33616475679141</v>
+      </c>
+      <c r="H17">
+        <v>0.20204209410971399</v>
+      </c>
+      <c r="I17">
+        <v>0.33162055335968399</v>
+      </c>
+      <c r="J17">
+        <v>0.345138339920949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>0.33802371541502002</v>
+      </c>
+      <c r="D18">
+        <v>0.31098814229249</v>
+      </c>
+      <c r="E18">
+        <v>0.31962950926226802</v>
+      </c>
+      <c r="F18">
+        <v>0.31962950926226802</v>
+      </c>
+      <c r="G18">
+        <v>0.31524961936052598</v>
+      </c>
+      <c r="H18">
+        <v>0.18711948249619501</v>
+      </c>
+      <c r="I18">
+        <v>0.31098814229249</v>
+      </c>
+      <c r="J18">
+        <v>0.32450592885375501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>0.33509881422924898</v>
+      </c>
+      <c r="D19">
+        <v>0.31612648221343898</v>
+      </c>
+      <c r="E19">
+        <v>0.32224012892828402</v>
+      </c>
+      <c r="F19">
+        <v>0.32224012892828402</v>
+      </c>
+      <c r="G19">
+        <v>0.31915403032721501</v>
+      </c>
+      <c r="H19">
+        <v>0.18987702388300701</v>
+      </c>
+      <c r="I19">
+        <v>0.31612648221343898</v>
+      </c>
+      <c r="J19">
+        <v>0.325612648221344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>0.30861660079051401</v>
+      </c>
+      <c r="D20">
+        <v>0.30861660079051401</v>
+      </c>
+      <c r="E20">
+        <v>0.30861660079051401</v>
+      </c>
+      <c r="F20">
+        <v>0.30861660079051401</v>
+      </c>
+      <c r="G20">
+        <v>0.30861660079051401</v>
+      </c>
+      <c r="H20">
+        <v>0.18246401196485301</v>
+      </c>
+      <c r="I20">
+        <v>0.30861660079051401</v>
+      </c>
+      <c r="J20">
+        <v>0.30861660079051401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>0.31312252964426901</v>
+      </c>
+      <c r="D21">
+        <v>0.31312252964426901</v>
+      </c>
+      <c r="E21">
+        <v>0.31312252964426901</v>
+      </c>
+      <c r="F21">
+        <v>0.31312252964426901</v>
+      </c>
+      <c r="G21">
+        <v>0.31312252964426901</v>
+      </c>
+      <c r="H21">
+        <v>0.18562256900510801</v>
+      </c>
+      <c r="I21">
+        <v>0.31312252964426901</v>
+      </c>
+      <c r="J21">
+        <v>0.31312252964426901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>0.62592885375494101</v>
+      </c>
+      <c r="D2">
+        <v>0.62592885375494101</v>
+      </c>
+      <c r="E2">
+        <v>0.62592885375494101</v>
+      </c>
+      <c r="F2">
+        <v>0.62592885375494101</v>
+      </c>
+      <c r="G2">
+        <v>0.62592885375494101</v>
+      </c>
+      <c r="H2">
+        <v>0.45552870785870397</v>
+      </c>
+      <c r="I2">
+        <v>0.62592885375494101</v>
+      </c>
+      <c r="J2">
+        <v>0.62592885375494101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.192159080199793</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.322371541501976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.181580422193163</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.30735177865612701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.17800437677515499</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.30221343873517797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.19950692205575599</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.33264822134387401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.225537686494865</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.36806324110671901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.206945902108577</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.34292490118577101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.236257024187637</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.38221343873517799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.22821496189135401</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.37162055335968402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.187570409312805</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.187570409312805</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.31588932806324099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.196670135275754</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.328695652173913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.18429059589009</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.31122529644268798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.22080679405520201</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.36173913043478301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.17221887596719601</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.293833992094862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>0.35865612648221301</v>
+      </c>
+      <c r="D17">
+        <v>0.33162055335968399</v>
+      </c>
+      <c r="E17">
+        <v>0.340835229119272</v>
+      </c>
+      <c r="F17">
+        <v>0.340835229119272</v>
+      </c>
+      <c r="G17">
+        <v>0.33616475679141</v>
+      </c>
+      <c r="H17">
+        <v>0.20204209410971399</v>
+      </c>
+      <c r="I17">
+        <v>0.33162055335968399</v>
+      </c>
+      <c r="J17">
+        <v>0.345138339920949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>0.32877470355731198</v>
+      </c>
+      <c r="D18">
+        <v>0.32071146245059301</v>
+      </c>
+      <c r="E18">
+        <v>0.32331845712464102</v>
+      </c>
+      <c r="F18">
+        <v>0.32331845712464102</v>
+      </c>
+      <c r="G18">
+        <v>0.32200968330819901</v>
+      </c>
+      <c r="H18">
+        <v>0.19190199139113601</v>
+      </c>
+      <c r="I18">
+        <v>0.32071146245059301</v>
+      </c>
+      <c r="J18">
+        <v>0.32474308300395299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.188295523930299</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.31691699604743101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.18152524167561801</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.30727272727272698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.19520030234315899</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.32664031620553402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D23">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E23">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="F23">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="G23">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="H23">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="I23">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J23">
+        <v>0.93051383399209497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D24">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E24">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F24">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G24">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H24">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I24">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J24">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D25">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E25">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F25">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G25">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H25">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I25">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J25">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D26">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E26">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F26">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G26">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H26">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I26">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J26">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D27">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E27">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="F27">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="G27">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="H27">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="I27">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J27">
+        <v>0.93051383399209497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D28">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E28">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F28">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G28">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H28">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I28">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J28">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H29">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I29">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J29">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D30">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E30">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="F30">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="G30">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="H30">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="I30">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J30">
+        <v>0.93051383399209497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H31">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I31">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J31">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D32">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E32">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="F32">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="G32">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="H32">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="I32">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J32">
+        <v>0.93051383399209497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D33">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E33">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F33">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G33">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H33">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I33">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J33">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H34">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I34">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J34">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D35">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E35">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F35">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G35">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H35">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I35">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J35">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D36">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E36">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="F36">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="G36">
+        <v>0.93917781873547601</v>
+      </c>
+      <c r="H36">
+        <v>0.88533011028856301</v>
+      </c>
+      <c r="I36">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J36">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E37">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="F37">
+        <v>0.952226194345141</v>
+      </c>
+      <c r="G37">
+        <v>0.93917781873547601</v>
+      </c>
+      <c r="H37">
+        <v>0.88533011028856301</v>
+      </c>
+      <c r="I37">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J37">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D38">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E38">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="F38">
+        <v>0.93401338858782301</v>
+      </c>
+      <c r="G38">
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="H38">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="I38">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J38">
+        <v>0.93051383399209497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <v>0.95351778656126496</v>
+      </c>
+      <c r="D39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E39">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="F39">
+        <v>0.95261885576148297</v>
+      </c>
+      <c r="G39">
+        <v>0.94349561053471698</v>
+      </c>
+      <c r="H39">
+        <v>0.89303520169209805</v>
+      </c>
+      <c r="I39">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J39">
+        <v>0.94403162055335998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="D40">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="E40">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="F40">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="G40">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="H40">
+        <v>0.87713310580204795</v>
+      </c>
+      <c r="I40">
+        <v>0.93454545454545501</v>
+      </c>
+      <c r="J40">
+        <v>0.93454545454545501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="D41">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="E41">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="F41">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="G41">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="H41">
+        <v>0.86303387334315196</v>
+      </c>
+      <c r="I41">
+        <v>0.92648221343873505</v>
+      </c>
+      <c r="J41">
+        <v>0.92648221343873505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>